--- a/public/excel/sample.xlsx
+++ b/public/excel/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A4D92E-92C7-984C-A9BA-A6A321B1E56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D16039-C18D-A945-8754-56CF5BADADCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Sl.no</t>
   </si>
@@ -91,10 +91,22 @@
     <t>DIRECT_ENQUIRY</t>
   </si>
   <si>
-    <t>BRANCH</t>
-  </si>
-  <si>
     <t>akshay2@intersmart.in</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>KOCHI</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>FRANCHISE</t>
+  </si>
+  <si>
+    <t>FRANCHISE1</t>
   </si>
 </sst>
 </file>
@@ -240,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -261,11 +273,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,7 +498,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -527,12 +538,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -561,19 +575,22 @@
       <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="5">
+      <c r="I2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="5">
         <v>1</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="12"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
@@ -591,8 +608,8 @@
       <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>24</v>
+      <c r="F3" t="s">
+        <v>23</v>
       </c>
       <c r="G3" s="5">
         <v>6719076543</v>
@@ -600,19 +617,22 @@
       <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="5">
-        <v>1</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="I3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="5">
+        <v>3</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="11"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
@@ -627,7 +647,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="N4" s="11"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
@@ -642,7 +662,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="N5" s="11"/>
+      <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
@@ -673,28 +693,28 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N8" s="13"/>
+      <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N9" s="11"/>
+      <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N10" s="11"/>
+      <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N11" s="11"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N13" s="13"/>
+      <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N14" s="11"/>
+      <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N15" s="11"/>
+      <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N16" s="11"/>
+      <c r="N16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/excel/sample.xlsx
+++ b/public/excel/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D16039-C18D-A945-8754-56CF5BADADCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004C1C6E-078B-A14A-9DE1-B5742539FF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Sl.no</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>FRANCHISE1</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>CA</t>
   </si>
 </sst>
 </file>
@@ -498,7 +504,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -581,8 +587,8 @@
       <c r="J2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="5">
-        <v>1</v>
+      <c r="K2" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>15</v>
@@ -623,8 +629,8 @@
       <c r="J3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="5">
-        <v>3</v>
+      <c r="K3" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>18</v>
